--- a/data/trans_bre/P18_5_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P18_5_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>15,17</t>
+          <t>9,32</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,12</t>
+          <t>-1,93</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,68</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,65</t>
+          <t>-2,85</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>91,39%</t>
+          <t>11,14</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-32,99%</t>
+          <t>56,98%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>415,69%</t>
+          <t>-17,72%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>53,55%</t>
+          <t>57,53%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-27,59%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>275,92%</t>
         </is>
       </c>
     </row>
@@ -668,40 +694,50 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 30,27</t>
+          <t>-9,68; 25,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,42; 5,38</t>
+          <t>-19,02; 10,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,34; 17,25</t>
+          <t>-11,71; 11,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 14,39</t>
+          <t>-18,55; 9,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,35; 297,18</t>
+          <t>-0,94; 27,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-87,06; 173,06</t>
+          <t>-38,26; 410,96</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 437,01</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>-2,85</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-13,93</t>
+          <t>-21,83</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,68</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,97</t>
+          <t>-6,05</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-0,47%</t>
+          <t>3,65</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-75,14%</t>
+          <t>-9,86%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>64,19%</t>
+          <t>-93,03%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-8,34%</t>
+          <t>19,49%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-33,67%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>57,01%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-22,35; 14,03</t>
+          <t>-30,78; 16,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-36,75; -2,02</t>
+          <t>-57,67; -3,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 11,32</t>
+          <t>-8,88; 12,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-25,65; 9,02</t>
+          <t>-41,35; 9,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-57,87; 111,97</t>
+          <t>-7,16; 14,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-97,42; -12,67</t>
+          <t>-69,45; 105,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-48,93; 499,18</t>
+          <t>-100,0; -35,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-83,93; 276,09</t>
+          <t>-73,8; 552,58</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-98,06; 228,99</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-70,53; 737,38</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-6,34</t>
+          <t>-1,72</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,19</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>7,2</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,36</t>
+          <t>3,9</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-19,83%</t>
+          <t>-14,27</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>31,41%</t>
+          <t>-5,99%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>25,41%</t>
+          <t>31,11%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>58,79%</t>
+          <t>79,03%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>46,45%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-58,82%</t>
         </is>
       </c>
     </row>
@@ -868,42 +934,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-18,51; 5,95</t>
+          <t>-16,12; 13,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 8,81</t>
+          <t>-6,11; 12,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,09; 12,34</t>
+          <t>-4,09; 18,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 10,71</t>
+          <t>-6,79; 12,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-48,41; 26,82</t>
+          <t>-27,87; -1,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-58,02; 275,68</t>
+          <t>-43,0; 71,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-46,46; 196,39</t>
+          <t>-48,66; 367,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-34,3; 258,0</t>
+          <t>-34,05; 552,7</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-48,61; 396,27</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-81,89; -9,65</t>
         </is>
       </c>
     </row>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>11,08</t>
+          <t>15,23</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,09</t>
+          <t>11,7</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11,31</t>
+          <t>14,1</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,02</t>
+          <t>13,7</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>43,03%</t>
+          <t>17,81</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>123,97%</t>
+          <t>57,1%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>87,99%</t>
+          <t>185,5%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>71,44%</t>
+          <t>103,18%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>104,71%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>195,22%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,52 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 20,82</t>
+          <t>0,6; 28,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,75; 16,38</t>
+          <t>2,66; 20,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,5; 19,28</t>
+          <t>2,06; 25,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,37; 18,56</t>
+          <t>2,94; 24,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 103,13</t>
+          <t>6,67; 28,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,24; 384,93</t>
+          <t>1,95; 154,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,4; 216,71</t>
+          <t>13,76; 759,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,28; 189,44</t>
+          <t>4,04; 268,06</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>13,28; 329,35</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>36,04; 649,67</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1116,52 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>9,84</t>
+          <t>7,86</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,07</t>
+          <t>4,34</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>9,77</t>
+          <t>13,34</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,78</t>
+          <t>9,37</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>52,61%</t>
+          <t>8,92</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>70,57%</t>
+          <t>47,61%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>77,1%</t>
+          <t>80,19%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>45,81%</t>
+          <t>95,99%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>67,57%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>105,89%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1174,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 21,46</t>
+          <t>-6,12; 23,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 11,5</t>
+          <t>-3,66; 14,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 19,83</t>
+          <t>-1,37; 29,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 18,23</t>
+          <t>-3,55; 23,38</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 164,38</t>
+          <t>-1,68; 23,39</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-38,08; 340,49</t>
+          <t>-33,14; 233,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 254,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-23,1; 178,58</t>
+          <t>-14,88; 337,5</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-22,47; 276,82</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-26,97; 567,29</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1236,52 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>20,87</t>
+          <t>13,7</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>11,6</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>5,37</t>
+          <t>6,34</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>14,6</t>
+          <t>18,83</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>81,53%</t>
+          <t>20,7</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>203,28%</t>
+          <t>51,52%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>33,87%</t>
+          <t>-6,98%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>131,15%</t>
+          <t>61,19%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>165,51%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>272,46%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1294,52 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,92; 37,07</t>
+          <t>-7,98; 33,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,54; 23,26</t>
+          <t>-15,09; 11,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-7,4; 16,69</t>
+          <t>-8,57; 21,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,0; 29,15</t>
+          <t>1,11; 37,23</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>20,02; 213,3</t>
+          <t>4,15; 50,15</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-9,12; 1321,54</t>
+          <t>-22,84; 207,41</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-37,41; 173,44</t>
+          <t>-89,94; inf</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,86; 462,29</t>
+          <t>-56,66; 638,55</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-14,99; 955,98</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-11,91; inf</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1356,52 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7,89</t>
+          <t>6,83</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,06</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,39</t>
+          <t>7,54</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,79</t>
+          <t>5,4</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>32,73%</t>
+          <t>8,18</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>23,2%</t>
+          <t>28,03%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>72,43%</t>
+          <t>-4,59%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>63,27%</t>
+          <t>75,25%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>42,53%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>80,73%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1414,59 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,12; 13,11</t>
+          <t>-1,1; 13,41</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 5,85</t>
+          <t>-12,16; 4,39</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,56; 11,16</t>
+          <t>2,12; 12,26</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,3; 10,68</t>
+          <t>-2,3; 11,1</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,94; 61,17</t>
+          <t>2,8; 15,46</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-27,33; 87,38</t>
+          <t>-4,31; 64,49</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>29,4; 138,19</t>
+          <t>-59,44; 60,76</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,82; 121,54</t>
+          <t>13,89; 151,75</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-15,97; 116,92</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>19,28; 203,21</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1312,10 +1475,10 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
